--- a/medicine/Sexualité et sexologie/Jonah_Falcon/Jonah_Falcon.xlsx
+++ b/medicine/Sexualité et sexologie/Jonah_Falcon/Jonah_Falcon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jonah Falcon, né le 29 juillet 1970 à New York, est un acteur, écrivain et présentateur de télévision américain. En 1999, il attire l'attention du public sur la taille de son pénis, qui serait le plus grand jamais enregistré avec 34 centimètres de longueur en érection. Toutefois, Falcon n’a pas autorisé ou permis la vérification indépendante de ce chiffre.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jonah Falcon est né à Brooklyn (New York). Son père, Joe Falcon, est décédé quand il avait deux ans.
 Plus tard, Jonah Falcon intégrera la Bronx High School of Science dont il sortira diplômé en 1998.
@@ -544,10 +558,12 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jonah Falcon se dit bisexuel[1]. Son cousin, Ben Lewin, confiera à Rolling Stone que Falcon n'est ni hétéro ni gay, et qu'il aimera quiconque ne lui fera pas de mal.
-Il affirme avoir couché avec plusieurs immenses célébrités grâce à la taille de son pénis[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jonah Falcon se dit bisexuel. Son cousin, Ben Lewin, confiera à Rolling Stone que Falcon n'est ni hétéro ni gay, et qu'il aimera quiconque ne lui fera pas de mal.
+Il affirme avoir couché avec plusieurs immenses célébrités grâce à la taille de son pénis.
 </t>
         </is>
       </c>
@@ -576,13 +592,15 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1999, Jonah Falcon attire l'attention des médias, lors d'un documentaire de la HBO intitulé Private Dicks: Men Exposed, où l'on interroge des hommes de 17 à plus de 70 ans sur leur pénis[3],[4]. En 2006, il apparaît également dans un documentaire britannique de la |Channel 4, The World's Biggest Penis (en français : Le plus grand pénis du monde)[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1999, Jonah Falcon attire l'attention des médias, lors d'un documentaire de la HBO intitulé Private Dicks: Men Exposed, où l'on interroge des hommes de 17 à plus de 70 ans sur leur pénis,. En 2006, il apparaît également dans un documentaire britannique de la |Channel 4, The World's Biggest Penis (en français : Le plus grand pénis du monde).
 En 2003, le magazine Rolling Stone lui consacre un reportage disant que Jonah Falcon possède un pénis de 9,5 pouces (24,13 cm) au repos et 13,5 pouces (34,29 cm) en érection.
-En mars 2010, dans l'émission de télévision satirique The Daily Show, Jonah Falcon annonce avoir été contacté plusieurs fois pour tourner dans des films pornographiques, mais il précise avoir toujours refusé[4].
-En juillet 2012, alors qu'il passe un poste de contrôle aéroportuaire à l'Aéroport international de San Francisco, il est considéré comme porteur d'un paquet suspect. Jonah Falcon précisera que les policiers l'ayant contrôlé pensaient qu'il était atteint d'une tumeur[6].
-Le 18 novembre 2021, dans l'émission This Morning (en) présentée par Phillip Schofield (en) et Josie Gibson, alors que les présentateurs comparaient la taille du pénis de Jonah Falcon avec un tube de la même longueur et une aubergine de la même largeur, ce dernier leur montra une photo de son pénis, ce qui laissa les présentateurs choqués et bouche bées. Schofield félicita Falcon pour la taille de son pénis[2].
+En mars 2010, dans l'émission de télévision satirique The Daily Show, Jonah Falcon annonce avoir été contacté plusieurs fois pour tourner dans des films pornographiques, mais il précise avoir toujours refusé.
+En juillet 2012, alors qu'il passe un poste de contrôle aéroportuaire à l'Aéroport international de San Francisco, il est considéré comme porteur d'un paquet suspect. Jonah Falcon précisera que les policiers l'ayant contrôlé pensaient qu'il était atteint d'une tumeur.
+Le 18 novembre 2021, dans l'émission This Morning (en) présentée par Phillip Schofield (en) et Josie Gibson, alors que les présentateurs comparaient la taille du pénis de Jonah Falcon avec un tube de la même longueur et une aubergine de la même largeur, ce dernier leur montra une photo de son pénis, ce qui laissa les présentateurs choqués et bouche bées. Schofield félicita Falcon pour la taille de son pénis.
 </t>
         </is>
       </c>
@@ -613,8 +631,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cinéma
-1995 : Mercy de Richard Shepard : Ivre dégoutant
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1995 : Mercy de Richard Shepard : Ivre dégoutant
 1996 : Eddie de Steve Rash : Fan des Knicks
 1997 : A, B, C... Manhattan (en) de Amir Naderi : Musicien
 2001 : Un homme d'exception de Ron Howard : Malade mental
@@ -625,9 +648,43 @@
 2007 : Across the Universe de Julie Taymor : Manifestant
 2012 : Dos au mur de Asger Leth : Chef
 2019 : Seberg de Benedict Andrews : Journaliste français
-2020 : Si tu savais... de Alice Wu : Paroissien
-Séries télévisées
-1998 : Melrose Place de Darren Star : Serveur (3 épisodes)
+2020 : Si tu savais... de Alice Wu : Paroissien</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jonah_Falcon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jonah_Falcon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Séries télévisées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1998 : Melrose Place de Darren Star : Serveur (3 épisodes)
 1999 : New York, unité spéciale de Dick Wolf : Juré (1 épisode)
 2000 : Madigan de père en fils de Cindy Chupack (en) (1 épisode)
 2000 et 2001 : Ed de Jon Beckerman (en) et Rob Burnett : Barfly (2 épisodes)
